--- a/data/protocol/LZZT/usdm/pilot_LLZT_protocol.xlsx
+++ b/data/protocol/LZZT/usdm/pilot_LLZT_protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_CDISC\360i\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E537B7-3D21-4842-A718-C83CDE613F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AABFF35-FD6D-4716-9579-CC4009E0C387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="761" firstSheet="8" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -6835,9 +6835,6 @@
     <t>BC:X-Ray Imaging</t>
   </si>
   <si>
-    <t>BC:Electrocardiogram Analysis, BC:Atrioventricular Conduction ECG Assessment, BC:Axis and Voltage ECG Assessment, BC:Chamber Hypertrophy or Enlargement ECG Assessment, BC:ECG Technical Quality, BC:Intraventricular and Intraatrial Conduction ECG Assessment, BC:Myocardial Infarction ECG Assessment, BC:Pacemaker ECG Assessment, BC:Rhythm Not Otherwise Specified ECG Assessment, BC:ST Segment, T wave, and U wave ECG Assessment, BC:Sinus Node Rhythm and Arrhythmia ECG Assessment, BC:Supraventricular Arrhythmia ECG Assessment, BC:Supraventricular Tachyarrhythmia ECG Assessment, BC:Ventricular Arrhythmia ECG Assessment, BC:Ventricular Tachyarrhythmia ECG Assessment, BC:Aggregate PR Interval, BC:Aggregate QRS Duration, BC:Aggregate QT Interval, BC:Aggregate QTCB Interval, BC:Aggregate QTCF Interval, BC:Aggregate RR Interval, BC:Mean Heart Rate by Electrocardiogram, BC:QRS Axis, BC:QTc Correction Method Unspecified, Aggregate, BC:</t>
-  </si>
-  <si>
     <t>BC:Computed Tomography</t>
   </si>
   <si>
@@ -6850,9 +6847,6 @@
     <t>BC:TTS Acceptability Survey, BC:TTS Acceptability Survey -  Patch Acceptability, BC:TTS Acceptability Survey -  Patch Appearance, BC:TTS Acceptability Survey -  Patch Durability, BC:TTS Acceptability Survey -  Patch Size</t>
   </si>
   <si>
-    <t>BC:CDISC ADAS-Cog - Commands Summary Score, BC:CDISC ADAS-Cog - Comprehension, BC:CDISC ADAS-Cog - Concentration/Distractibility, BC:CDISC ADAS-Cog - Constructional Praxis Summary Score, BC:CDISC ADAS-Cog - Word Difficulty in Spontaneous Speech, BC:CDISC ADAS-Cog - Delayed Word Recall Summary Score, BC:CDISC ADAS-Cog - Ideational Praxis Summary Score, BC:CDISC ADAS-Cog - Executive Function Maze: Errors, BC:CDISC ADAS-Cog - Executive Function Maze: Time, BC:CDISC ADAS-Cog - Number Cancellation Summary Score, BC:CDISC ADAS-Cog - Naming Objects and Fingers Summary Score, BC:CDISC ADAS-Cog - Orientation Summary Score, BC:CDISC ADAS-Cog - Word Recognition Summary Score, BC:CDISC ADAS-Cog - Remembering Test Instructions, BC:CDISC ADAS-Cog - Word Recall Average Score, BC:CDISC ADAS-Cog - Spoken Language Ability, BC:</t>
-  </si>
-  <si>
     <t>BC:Concomitant Medication Yes No Indicator, BC:Concomitant Therapy</t>
   </si>
   <si>
@@ -6908,6 +6902,12 @@
   </si>
   <si>
     <t>BC:Systolic Blood Pressure, BC:Diastolic Blood Pressure, BC:Heart Rate, BC:Body Temperature, BC:Body Weight, BC:Body Height, BC:Pulse Rate, BC:Respiratory Rate, BC:Body Mass Index</t>
+  </si>
+  <si>
+    <t>BC:CDISC ADAS-Cog - Commands Summary Score, BC:CDISC ADAS-Cog - Comprehension, BC:CDISC ADAS-Cog - Concentration/Distractibility, BC:CDISC ADAS-Cog - Constructional Praxis Summary Score, BC:CDISC ADAS-Cog - Word Difficulty in Spontaneous Speech, BC:CDISC ADAS-Cog - Delayed Word Recall Summary Score, BC:CDISC ADAS-Cog - Ideational Praxis Summary Score, BC:CDISC ADAS-Cog - Executive Function Maze: Errors, BC:CDISC ADAS-Cog - Executive Function Maze: Time, BC:CDISC ADAS-Cog - Number Cancellation Summary Score, BC:CDISC ADAS-Cog - Naming Objects and Fingers Summary Score, BC:CDISC ADAS-Cog - Orientation Summary Score, BC:CDISC ADAS-Cog - Word Recognition Summary Score, BC:CDISC ADAS-Cog - Remembering Test Instructions, BC:CDISC ADAS-Cog - Word Recall Average Score, BC:CDISC ADAS-Cog - Spoken Language Ability</t>
+  </si>
+  <si>
+    <t>BC:Electrocardiogram Analysis, BC:Atrioventricular Conduction ECG Assessment, BC:Axis and Voltage ECG Assessment, BC:Chamber Hypertrophy or Enlargement ECG Assessment, BC:ECG Technical Quality, BC:Intraventricular and Intraatrial Conduction ECG Assessment, BC:Myocardial Infarction ECG Assessment, BC:Pacemaker ECG Assessment, BC:Rhythm Not Otherwise Specified ECG Assessment, BC:ST Segment, T wave, and U wave ECG Assessment, BC:Sinus Node Rhythm and Arrhythmia ECG Assessment, BC:Supraventricular Arrhythmia ECG Assessment, BC:Supraventricular Tachyarrhythmia ECG Assessment, BC:Ventricular Arrhythmia ECG Assessment, BC:Ventricular Tachyarrhythmia ECG Assessment, BC:Aggregate PR Interval, BC:Aggregate QRS Duration, BC:Aggregate QT Interval, BC:Aggregate QTCB Interval, BC:Aggregate QTCF Interval, BC:Aggregate RR Interval, BC:Mean Heart Rate by Electrocardiogram, BC:QRS Axis, BC:QTc Correction Method Unspecified, Aggregate</t>
   </si>
 </sst>
 </file>
@@ -7282,16 +7282,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8685,8 +8685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -9309,7 +9309,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -9363,10 +9363,10 @@
     <row r="14" spans="1:19">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>360</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -10150,7 +10150,7 @@
         <v>156</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -10204,10 +10204,10 @@
     <row r="29" spans="1:19">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -10261,10 +10261,10 @@
     <row r="30" spans="1:19">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -10378,7 +10378,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -10435,7 +10435,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -10489,10 +10489,10 @@
     <row r="34" spans="1:19" ht="94.5">
       <c r="A34" s="4"/>
       <c r="B34" s="3" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -10604,7 +10604,7 @@
         <v>158</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -10661,7 +10661,7 @@
         <v>364</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>17</v>
@@ -10718,7 +10718,7 @@
         <v>159</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>17</v>
@@ -10775,7 +10775,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1552</v>
+        <v>1570</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -11447,7 +11447,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -12071,8 +12071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -12194,7 +12194,7 @@
         <v>360</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -12206,7 +12206,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -12218,7 +12218,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -12230,7 +12230,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -12242,7 +12242,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -12251,10 +12251,10 @@
     <row r="16" spans="1:4" s="1" customFormat="1" ht="94.5">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -12276,7 +12276,7 @@
         <v>364</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -12288,7 +12288,7 @@
         <v>159</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -12300,7 +12300,7 @@
         <v>160</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>1552</v>
+        <v>1570</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -12351,10 +12351,10 @@
     <row r="25" spans="1:4" s="1" customFormat="1" ht="157.5">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -12700,7 +12700,7 @@
         <v>474</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -12727,7 +12727,7 @@
         <v>476</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -14639,7 +14639,7 @@
         <v>336</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -14684,7 +14684,7 @@
         <v>338</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>54</v>
@@ -21406,169 +21406,169 @@
       <c r="A1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="78" t="s">
         <v>511</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="75" t="s">
         <v>505</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="75" t="s">
         <v>507</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="76" t="s">
         <v>425</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
@@ -21660,6 +21660,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -21669,11 +21674,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21738,6 +21738,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -21746,15 +21755,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21959,6 +21959,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -21971,14 +21979,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
